--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="4160" yWindow="400" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Alternative_Folk</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>Average:</t>
+  </si>
+  <si>
+    <t>Only signals</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t># nodes = 750</t>
+  </si>
+  <si>
+    <t>#nodes = 100</t>
+  </si>
+  <si>
+    <t>500 100 50</t>
+  </si>
+  <si>
+    <t>#nodes = 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80% training </t>
+  </si>
+  <si>
+    <t>70% training</t>
+  </si>
+  <si>
+    <t>4 HL</t>
+  </si>
+  <si>
+    <t>100 500 1000</t>
   </si>
 </sst>
 </file>
@@ -185,7 +215,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -293,12 +323,319 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="413">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -352,6 +689,159 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,6 +895,159 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,18 +1377,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -759,10 +1405,43 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1000500100</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -776,10 +1455,43 @@
         <v>0.75</v>
       </c>
       <c r="E2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.68421100000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+      <c r="N2">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.81578899999999999</v>
+      </c>
+      <c r="P2">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -793,10 +1505,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E3">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.68421100000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.96</v>
+      </c>
+      <c r="O3">
+        <v>0.97368399999999999</v>
+      </c>
+      <c r="P3">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -810,10 +1555,43 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.97368399999999999</v>
+      </c>
+      <c r="P4">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -827,10 +1605,43 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -843,11 +1654,44 @@
       <c r="D6" s="1">
         <v>0.75</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.736842</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.75</v>
+      </c>
+      <c r="L6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <v>0.81578899999999999</v>
+      </c>
+      <c r="P6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -861,10 +1705,43 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.97368399999999999</v>
+      </c>
+      <c r="P7">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -878,10 +1755,43 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.92105300000000001</v>
+      </c>
+      <c r="P8">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -895,10 +1805,43 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -912,10 +1855,43 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -929,10 +1905,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E11">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.894737</v>
+      </c>
+      <c r="H11">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.88</v>
+      </c>
+      <c r="O11">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="P11">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -946,10 +1955,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -962,11 +2004,44 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="P13">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -980,10 +2055,43 @@
         <v>1</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -997,10 +2105,43 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="P15">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1014,10 +2155,43 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.75</v>
+      </c>
+      <c r="N16">
+        <v>0.92</v>
+      </c>
+      <c r="O16">
+        <v>0.92105300000000001</v>
+      </c>
+      <c r="P16">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1031,10 +2205,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.96</v>
+      </c>
+      <c r="O17">
+        <v>0.97368399999999999</v>
+      </c>
+      <c r="P17">
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1048,10 +2255,43 @@
         <v>1</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0.894737</v>
+      </c>
+      <c r="P18">
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1065,10 +2305,43 @@
         <v>0.75</v>
       </c>
       <c r="E19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.75</v>
+      </c>
+      <c r="J19">
+        <v>0.75</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>0.75</v>
+      </c>
+      <c r="M19">
+        <v>0.75</v>
+      </c>
+      <c r="N19">
+        <v>0.88</v>
+      </c>
+      <c r="O19">
+        <v>0.78947400000000001</v>
+      </c>
+      <c r="P19">
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1082,10 +2355,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.736842</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.84</v>
+      </c>
+      <c r="O20">
+        <v>0.894737</v>
+      </c>
+      <c r="P20">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1099,10 +2405,43 @@
         <v>1</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0.96</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1116,10 +2455,43 @@
         <v>1</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.96</v>
+      </c>
+      <c r="O22">
+        <v>0.97368399999999999</v>
+      </c>
+      <c r="P22">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1132,11 +2504,44 @@
       <c r="D23">
         <v>0.83333299999999999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.96</v>
+      </c>
+      <c r="O23">
+        <v>0.92105300000000001</v>
+      </c>
+      <c r="P23">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1150,10 +2555,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.894737</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.92</v>
+      </c>
+      <c r="O24">
+        <v>0.868421</v>
+      </c>
+      <c r="P24">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1166,11 +2604,44 @@
       <c r="D25">
         <v>0.91666700000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.78947400000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.75</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.92</v>
+      </c>
+      <c r="O25">
+        <v>0.868421</v>
+      </c>
+      <c r="P25">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1184,10 +2655,43 @@
         <v>1</v>
       </c>
       <c r="E26">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.894737</v>
+      </c>
+      <c r="H26">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0.92</v>
+      </c>
+      <c r="O26">
+        <v>0.97368399999999999</v>
+      </c>
+      <c r="P26">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1201,10 +2705,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E27">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J27">
+        <v>0.75</v>
+      </c>
+      <c r="K27">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.96</v>
+      </c>
+      <c r="O27">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="P27">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1217,11 +2754,44 @@
       <c r="D28" s="1">
         <v>0.91666700000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0.88</v>
+      </c>
+      <c r="O28">
+        <v>0.94736799999999999</v>
+      </c>
+      <c r="P28">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1235,10 +2805,43 @@
         <v>0.83333299999999999</v>
       </c>
       <c r="E29">
+        <v>0.41666700000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.78947400000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.75</v>
+      </c>
+      <c r="J29">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="L29">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="M29">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.72</v>
+      </c>
+      <c r="O29">
+        <v>0.763158</v>
+      </c>
+      <c r="P29">
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1251,11 +2854,44 @@
       <c r="D30" s="1">
         <v>0.91666700000000001</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.894737</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N30">
+        <v>0.88</v>
+      </c>
+      <c r="O30">
+        <v>0.868421</v>
+      </c>
+      <c r="P30">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1269,10 +2905,43 @@
         <v>0.75</v>
       </c>
       <c r="E31">
+        <v>0.75</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.78947400000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.75</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.75</v>
+      </c>
+      <c r="L31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.75</v>
+      </c>
+      <c r="N31">
+        <v>0.76</v>
+      </c>
+      <c r="O31">
+        <v>0.71052599999999999</v>
+      </c>
+      <c r="P31">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1286,10 +2955,43 @@
         <v>0.91666700000000001</v>
       </c>
       <c r="E32">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.75</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.96</v>
+      </c>
+      <c r="O32">
+        <v>0.868421</v>
+      </c>
+      <c r="P32">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1301,6 +3003,39 @@
       </c>
       <c r="D33">
         <v>0.92741899999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.91666599999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.87634400000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.91850500000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.92741899999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.91129000000000004</v>
+      </c>
+      <c r="J33">
+        <v>0.90053700000000003</v>
+      </c>
+      <c r="K33">
+        <v>0.919354</v>
+      </c>
+      <c r="L33">
+        <v>0.919354</v>
+      </c>
+      <c r="M33">
+        <v>0.89247299999999996</v>
+      </c>
+      <c r="N33">
+        <v>0.93408599999999997</v>
+      </c>
+      <c r="O33">
+        <v>0.919354</v>
       </c>
     </row>
   </sheetData>
